--- a/biology/Histoire de la zoologie et de la botanique/Médaille_Elliott-Coues/Médaille_Elliott-Coues.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Médaille_Elliott-Coues/Médaille_Elliott-Coues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Elliott-Coues</t>
+          <t>Médaille_Elliott-Coues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille Elliott-Coues est attribuée par l’American Ornithological Society depuis 1972. Elle célèbre l'œuvre d'Elliott Coues (1842-1899).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Elliott-Coues</t>
+          <t>Médaille_Elliott-Coues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1972 : Alexander Wetmore (1886-1978).
 1972 : Nikolaas Tinbergen (1907-1988).
@@ -560,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Elliott-Coues</t>
+          <t>Médaille_Elliott-Coues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -578,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) http://www.aou.org/ Site officiel de l’Union américaine d'ornithologie.
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie                    </t>
